--- a/files/Timdeplatvis111/converted/Bestand1.xlsx
+++ b/files/Timdeplatvis111/converted/Bestand1.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Bestand2Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,12 +25,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00500000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -45,8 +50,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -322,10 +328,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -333,6 +339,7 @@
     <col customWidth="1" max="1" min="1" width="15.7109375"/>
     <col customWidth="1" max="2" min="2" width="33.85546875"/>
     <col customWidth="1" max="3" min="3" width="29.85546875"/>
+    <col customWidth="1" max="28" min="28" width="24.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -348,14 +355,19 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Dit is bestand 2 column 2</t>
+          <t>Data bestand 1</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Dit is bestand 1 column 2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Test5</t>
+          <t>Test5423</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -363,16 +375,21 @@
           <t>Bestand 1 column 2</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Bestand 2 column 7</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Test9</t>
+          <t>Test9432</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -382,14 +399,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bestand 2 column 7</t>
+          <t>dwadwa</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Test4</t>
+          <t>Test44242</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -397,16 +419,21 @@
           <t>Bestand 1 column 4</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bestand 2 column 7</t>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Bestand 2 column 4</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Test7</t>
+          <t>Test74674</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -416,14 +443,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bestand 2 column 7</t>
+          <t>data bestaadand 1</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Test9</t>
+          <t>Test9424242</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -431,16 +463,21 @@
           <t>Bestand 1 column 6</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bestand 2 column 7</t>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Bestand 2 column 6</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Test3</t>
+          <t>Test342356</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -450,7 +487,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bestand 2 column 7</t>
+          <t>dwadwa</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 7</t>
         </is>
       </c>
     </row>
@@ -465,9 +507,14 @@
           <t>Bestand 1 column 8</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Bestand 2 column 12</t>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>Bestand 2 column 9</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 8</t>
         </is>
       </c>
     </row>
@@ -482,9 +529,14 @@
           <t>Bestand 1 column 9</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>Bestand 2 column 12</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 9</t>
         </is>
       </c>
     </row>
@@ -499,9 +551,14 @@
           <t>Bestand 1 column 10</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>Bestand 2 column 11</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 10</t>
         </is>
       </c>
     </row>
@@ -516,9 +573,21 @@
           <t>Bestand 1 column 11</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Bestand 2 column 10</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Bestand 1 column 12</t>
         </is>
       </c>
     </row>
